--- a/Hospitais/extraidos/hospitais_janeiro.xlsx
+++ b/Hospitais/extraidos/hospitais_janeiro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>código</t>
   </si>
@@ -28,6 +28,15 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -37,9 +46,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -73,9 +79,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -106,9 +109,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Alteração da data da cirurgia (adc)/e ou erro de agendamento</t>
   </si>
   <si>
@@ -118,9 +118,6 @@
     <t>Indisponibilidade de leito para internação hospitalar (ilh)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -187,19 +181,16 @@
     <t>SEM INFORMES (SINF)</t>
   </si>
   <si>
-    <t>Sem cancelamentos</t>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>3.66%</t>
   </si>
   <si>
     <t>1.22%</t>
   </si>
   <si>
-    <t>0.61%</t>
-  </si>
-  <si>
     <t>1.83%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
   </si>
   <si>
     <t>3.05%</t>
@@ -600,13 +591,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -619,11 +607,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,13 +619,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,13 +633,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -719,10 +701,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>59</v>
@@ -736,13 +718,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,13 +735,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,13 +752,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -790,10 +772,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -807,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,13 +803,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,13 +820,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -858,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -872,13 +854,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -892,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -906,13 +888,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -923,13 +905,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -940,13 +922,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -957,13 +939,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -974,13 +956,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -991,13 +973,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1008,13 +990,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1025,13 +1007,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1042,13 +1024,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Hospitais/extraidos/hospitais_janeiro.xlsx
+++ b/Hospitais/extraidos/hospitais_janeiro.xlsx
@@ -28,15 +28,15 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -181,10 +181,10 @@
     <t>SEM INFORMES (SINF)</t>
   </si>
   <si>
+    <t>3.66%</t>
+  </si>
+  <si>
     <t>0.61%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
   </si>
   <si>
     <t>1.22%</t>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
@@ -656,7 +656,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -724,7 +724,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -741,7 +741,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -758,7 +758,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -792,7 +792,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -826,7 +826,7 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -928,7 +928,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -979,7 +979,7 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5">
